--- a/Speed Tests.xlsx
+++ b/Speed Tests.xlsx
@@ -181,10 +181,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -198,6 +198,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -233,10 +242,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -250,6 +259,15 @@
                   <c:v>81096</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>516778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2079293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4654363</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>8210322</c:v>
                 </c:pt>
               </c:numCache>
@@ -285,10 +303,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -302,6 +320,15 @@
                   <c:v>335658</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2280401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9626337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22049623</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>38399097</c:v>
                 </c:pt>
               </c:numCache>
@@ -337,10 +364,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -354,6 +381,15 @@
                   <c:v>2243</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>8194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20879</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>28318</c:v>
                 </c:pt>
               </c:numCache>
@@ -370,11 +406,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425611232"/>
-        <c:axId val="425612016"/>
+        <c:axId val="409447072"/>
+        <c:axId val="409441192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425611232"/>
+        <c:axId val="409447072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,7 +453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425612016"/>
+        <c:crossAx val="409441192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -425,7 +461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425612016"/>
+        <c:axId val="409441192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,7 +512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425611232"/>
+        <c:crossAx val="409447072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1130,7 +1166,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1411,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,15 +1527,57 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>25000</v>
+      </c>
+      <c r="B6">
+        <v>516778</v>
+      </c>
+      <c r="C6">
+        <v>2280401</v>
+      </c>
+      <c r="D6">
+        <v>8194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50000</v>
+      </c>
+      <c r="B7">
+        <v>2079293</v>
+      </c>
+      <c r="C7">
+        <v>9626337</v>
+      </c>
+      <c r="D7">
+        <v>15032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>75000</v>
+      </c>
+      <c r="B8">
+        <v>4654363</v>
+      </c>
+      <c r="C8">
+        <v>22049623</v>
+      </c>
+      <c r="D8">
+        <v>20879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>100000</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>8210322</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>38399097</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>28318</v>
       </c>
     </row>
